--- a/misc/Instructions.xlsx
+++ b/misc/Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\haritha\bootcamprepo\We-R-No-Angels\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0395D0E-53AC-4243-A516-A5B923249221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589227E-6723-450F-AC5F-FB3E5CC80DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37545" yWindow="3585" windowWidth="18210" windowHeight="10905" firstSheet="1" activeTab="5" xr2:uid="{4C59D44A-C9A2-48D6-ACE2-94B2EC3B428B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4C59D44A-C9A2-48D6-ACE2-94B2EC3B428B}"/>
   </bookViews>
   <sheets>
     <sheet name="project4_Instruction" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
   <si>
     <t>Study the data</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">We R no Angels </t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/graph/?id=CALOSA7URN</t>
   </si>
 </sst>
 </file>
@@ -973,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A85CA-EA54-4E25-BD8D-0F04339E30E8}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1015,17 +1018,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="90">
+    <row r="24" spans="1:2" ht="45">
       <c r="A24" s="9" t="s">
         <v>44</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="60">
+    <row r="27" spans="1:2" ht="30">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1332,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8176C02-EAA9-4A94-BA0A-93C0827D5A11}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1346,13 +1349,19 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{A49C3564-5269-45C7-8D69-96E3D46E569F}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{036C2315-563A-46AC-813E-1F726AE6D389}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1371,32 +1380,32 @@
     <col min="1" max="1" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="60">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="60">
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45">
+    <row r="4" spans="1:1" ht="15">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="60">
+    <row r="5" spans="1:1" ht="15">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45">
+    <row r="6" spans="1:1" ht="15">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1410,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B598B-AACE-492C-8EB1-3189D5AA8713}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1"/>
